--- a/Dico_données.xlsx
+++ b/Dico_données.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c25ab855a8033b9c/Documents/ENSAI/3A cours/Techniques et méthodes de scoring/projet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c25ab855a8033b9c/Documents/ENSAI/3A cours/Techniques et méthodes de scoring/projet/projet-scoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{B9ED1DFF-B571-4CFD-8FFA-3A38EF7798F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0EB25E14-C342-43DD-B2E5-701DCE31FAF0}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9270" windowHeight="10170" firstSheet="2" xr2:uid="{0EB25E14-C342-43DD-B2E5-701DCE31FAF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Dico" sheetId="1" r:id="rId1"/>
@@ -14321,7 +14321,7 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
